--- a/BOM LPF& HPF caps .xlsx
+++ b/BOM LPF& HPF caps .xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Documents\KiCad\Projets\Alexiares_LPF - Copie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{49A17802-59E6-4DFE-9365-2A4E0F7A00EB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590ACD63-8D6A-4BF8-A347-0F039B9AD029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{CDA5AC34-BEE5-4C5B-B44E-02FF516C8D2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CDA5AC34-BEE5-4C5B-B44E-02FF516C8D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>Ref</t>
   </si>
@@ -298,6 +304,12 @@
   </si>
   <si>
     <t>T68-10</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>1200 pf pour complétion</t>
   </si>
 </sst>
 </file>
@@ -522,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -559,6 +571,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,27 +887,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF816285-245C-4474-81F1-93BF27DBF472}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -910,19 +924,22 @@
         <v>83</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -938,14 +955,17 @@
       <c r="E4" s="21">
         <v>2420129</v>
       </c>
-      <c r="G4" s="27">
+      <c r="F4" s="29">
+        <v>1111</v>
+      </c>
+      <c r="H4" s="27">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -961,14 +981,15 @@
       <c r="E5" s="21">
         <v>2420131</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="21"/>
+      <c r="H5" t="s">
         <v>86</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -984,11 +1005,12 @@
       <c r="E6" s="20">
         <v>2420135</v>
       </c>
-      <c r="H6" t="s">
+      <c r="F6" s="20"/>
+      <c r="I6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1004,11 +1026,14 @@
       <c r="E7" s="20">
         <v>2420137</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" s="27">
+        <v>1111</v>
+      </c>
+      <c r="I7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1049,9 @@
       <c r="E8" s="20">
         <v>2420139</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1041,11 +1067,12 @@
       <c r="E9" s="20">
         <v>2420145</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="20"/>
+      <c r="G9" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1061,11 +1088,12 @@
       <c r="E10" s="20">
         <v>2420147</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="20"/>
+      <c r="G10" s="27">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1109,9 @@
       <c r="E11" s="20">
         <v>2420148</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1127,9 @@
       <c r="E12" s="20">
         <v>2420149</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1113,10 +1143,11 @@
         <v>74</v>
       </c>
       <c r="E13" s="20">
-        <v>1885490</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2420150</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1132,8 +1163,9 @@
       <c r="E14" s="20">
         <v>2420151</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1147,10 +1179,11 @@
         <v>74</v>
       </c>
       <c r="E15" s="20">
-        <v>1885468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2420152</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1164,14 +1197,15 @@
         <v>74</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1187,9 +1221,10 @@
       <c r="E17" s="20">
         <v>2420155</v>
       </c>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F17" s="20"/>
+      <c r="P17" s="22"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1205,8 +1240,9 @@
       <c r="E18" s="20">
         <v>2420157</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1222,14 +1258,15 @@
       <c r="E19" s="20">
         <v>2420142</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
         <v>2420159</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1245,8 +1282,9 @@
       <c r="E20" s="20">
         <v>2420161</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1260,10 +1298,11 @@
         <v>74</v>
       </c>
       <c r="E21" s="20">
-        <v>1885464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2420162</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1279,8 +1318,9 @@
       <c r="E22" s="20">
         <v>2420163</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1296,8 +1336,11 @@
       <c r="E23" s="20">
         <v>2420164</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F23" s="27">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1313,8 +1356,11 @@
       <c r="E24" s="20">
         <v>2420167</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F24" s="27">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1328,7 +1374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1341,8 +1387,14 @@
       <c r="D26" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>2420172</v>
+      </c>
+      <c r="H26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -1353,19 +1405,19 @@
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
     </row>
-    <row r="30" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="23" t="s">
         <v>76</v>
       </c>
@@ -1373,8 +1425,8 @@
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -1390,8 +1442,9 @@
       <c r="E32" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -1407,14 +1460,15 @@
       <c r="E33" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="F33" s="28"/>
+      <c r="I33" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>33</v>
       </c>
@@ -1430,14 +1484,15 @@
       <c r="E34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H34" t="s">
+      <c r="F34" s="28"/>
+      <c r="I34" t="s">
         <v>78</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>35</v>
       </c>
@@ -1453,14 +1508,15 @@
       <c r="E35" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H35" t="s">
+      <c r="F35" s="28"/>
+      <c r="I35" t="s">
         <v>79</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>37</v>
       </c>
@@ -1476,8 +1532,9 @@
       <c r="E36" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>39</v>
       </c>
@@ -1493,8 +1550,9 @@
       <c r="E37" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>41</v>
       </c>
@@ -1510,8 +1568,9 @@
       <c r="E38" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>43</v>
       </c>
@@ -1527,8 +1586,9 @@
       <c r="E39" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>45</v>
       </c>
@@ -1544,8 +1604,9 @@
       <c r="E40" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -1561,8 +1622,9 @@
       <c r="E41" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>49</v>
       </c>
@@ -1578,8 +1640,9 @@
       <c r="E42" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>51</v>
       </c>
@@ -1595,8 +1658,9 @@
       <c r="E43" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>53</v>
       </c>
@@ -1612,8 +1676,9 @@
       <c r="E44" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>55</v>
       </c>
@@ -1629,8 +1694,9 @@
       <c r="E45" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>56</v>
       </c>
@@ -1646,8 +1712,9 @@
       <c r="E46" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>58</v>
       </c>
@@ -1663,8 +1730,9 @@
       <c r="E47" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>60</v>
       </c>
@@ -1680,8 +1748,9 @@
       <c r="E48" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>62</v>
       </c>
@@ -1697,8 +1766,9 @@
       <c r="E49" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>64</v>
       </c>
@@ -1714,8 +1784,9 @@
       <c r="E50" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>66</v>
       </c>
@@ -1731,8 +1802,9 @@
       <c r="E51" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>68</v>
       </c>
@@ -1748,8 +1820,9 @@
       <c r="E52" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>70</v>
       </c>
@@ -1765,8 +1838,9 @@
       <c r="E53" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>72</v>
       </c>
@@ -1782,20 +1856,23 @@
       <c r="E54" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
